--- a/TBL_SUCURSALES.xlsx
+++ b/TBL_SUCURSALES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leine\Documents\DIPLOMADO\ProyectoGrado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3A21F4-BF99-4734-8645-DE8E79127724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A5E538-11F8-4701-A7F6-F5F0529965CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="102">
   <si>
     <t>ID_SUCURSAL</t>
   </si>
@@ -54,9 +54,6 @@
     <t>CALLE 26B # 41C - 25 OFICINA 301</t>
   </si>
   <si>
-    <t>VALLE</t>
-  </si>
-  <si>
     <t>SEDE PRINCIPAL</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>CALLE 2 CRA 4 - 19</t>
   </si>
   <si>
-    <t>TAMBO</t>
-  </si>
-  <si>
     <t>SERVIENTREGA EL TAMBO</t>
   </si>
   <si>
@@ -279,9 +273,6 @@
     <t>-76.64613911905225</t>
   </si>
   <si>
-    <t>LOBOGUERRERO</t>
-  </si>
-  <si>
     <t>3.5724498873984794, -76.64365198553723</t>
   </si>
   <si>
@@ -343,6 +334,9 @@
   </si>
   <si>
     <t>-76.69032864301961</t>
+  </si>
+  <si>
+    <t>BUENAVENTURA</t>
   </si>
 </sst>
 </file>
@@ -699,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +703,7 @@
     <col min="2" max="2" width="36.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="11.42578125" style="3"/>
+    <col min="5" max="5" width="17" style="3" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="36" style="3" bestFit="1" customWidth="1"/>
@@ -732,13 +726,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -755,16 +749,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -772,25 +766,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -798,25 +792,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="1">
         <v>1133</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -824,25 +818,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>320</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -850,25 +844,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1">
         <v>1135</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -876,25 +870,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>359</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -902,25 +896,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1">
         <v>320</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -928,25 +922,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D9" s="1">
         <v>1141</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -954,25 +948,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D10" s="1">
         <v>39</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -980,25 +974,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D11" s="1">
         <v>1135</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1006,25 +1000,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D12" s="1">
         <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1032,25 +1026,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D13" s="1">
         <v>359</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1058,25 +1052,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1">
         <v>359</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1084,25 +1078,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1">
         <v>1135</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1110,25 +1104,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1">
         <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1136,25 +1130,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1">
         <v>1163</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1162,25 +1156,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1">
         <v>1163</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1188,25 +1182,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1">
         <v>1135</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1214,25 +1208,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1">
         <v>320</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1240,25 +1234,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1">
         <v>1133</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1266,25 +1260,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" s="1">
         <v>1163</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1292,25 +1286,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1">
         <v>320</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1318,25 +1312,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" s="1">
         <v>39</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1344,25 +1338,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1">
         <v>1163</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1370,25 +1364,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1">
         <v>1135</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
